--- a/data/trans_bre/P15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.682898866927085</v>
+        <v>-5.869130629250661</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.607707957597373</v>
+        <v>-3.639159750899738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.858498857954466</v>
+        <v>-1.351902379322703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.417411644279174</v>
+        <v>-3.485595554383256</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5896519677379405</v>
+        <v>-0.5903458708732711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3613676020857934</v>
+        <v>-0.3682931799563141</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2454330957006874</v>
+        <v>-0.2018254753314582</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3822579075070242</v>
+        <v>-0.3844235925939248</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.286871779281841</v>
+        <v>-0.4927194992891359</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.345609951529552</v>
+        <v>2.12144013531962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.778609598997464</v>
+        <v>3.715904352576866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.646502364719893</v>
+        <v>1.666569468968591</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.02507411890039763</v>
+        <v>-0.06873414397488035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3542102184747766</v>
+        <v>0.2945678254515414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7932379946444255</v>
+        <v>0.7279117773589865</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2976860875365457</v>
+        <v>0.2994579175048023</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.254850005368928</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.267552363769395</v>
+        <v>-1.267552363769396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.30789327995194</v>
@@ -749,7 +749,7 @@
         <v>-0.2121543789786081</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1777150985216858</v>
+        <v>-0.1777150985216859</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.099777290303135</v>
+        <v>-5.193359909503172</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.285665535760883</v>
+        <v>-3.268166967797522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.335625475080762</v>
+        <v>-3.226952630407067</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.988133636593516</v>
+        <v>-3.54099033280189</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5055329412080251</v>
+        <v>-0.5216562793156387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3479775914308901</v>
+        <v>-0.3445246795345698</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4803888508745647</v>
+        <v>-0.4705430866322268</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4501612710624947</v>
+        <v>-0.4183059628208751</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.2044653761235837</v>
+        <v>-0.5303089880557432</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.686098332793194</v>
+        <v>1.672050812418559</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7727201192171801</v>
+        <v>0.8421580776968393</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.210690179207206</v>
+        <v>1.08163610220305</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.02290995211586675</v>
+        <v>-0.06846935047257363</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2498050073306323</v>
+        <v>0.2488816366075946</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1453315893433686</v>
+        <v>0.1791894977015112</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2251120892713884</v>
+        <v>0.197170544300537</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.1671466324302717</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4837183710939552</v>
+        <v>0.4837183710939553</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.274090921196966</v>
+        <v>-4.248063972831147</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.117172755577507</v>
+        <v>-2.950361598824876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.83867572774664</v>
+        <v>-2.8611731533193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3674797611499764</v>
+        <v>-0.255253734229049</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5362514354059048</v>
+        <v>-0.5273059963186096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.354076205755629</v>
+        <v>-0.3354539881952066</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4949571980408949</v>
+        <v>-0.4836909346487802</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06660382201017895</v>
+        <v>-0.05632378472863075</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9501354040825787</v>
+        <v>1.053745850072075</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.322524746398073</v>
+        <v>2.338006476446525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.246035551580723</v>
+        <v>1.370735649488505</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.975256657644349</v>
+        <v>4.036240390767207</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1871400697747086</v>
+        <v>0.2051334246424002</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3623042310006968</v>
+        <v>0.4074365721542283</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3390320135977928</v>
+        <v>0.3976789547182195</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.305369472375853</v>
+        <v>1.41309316828613</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.4948633845409237</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1026579953840548</v>
+        <v>0.1026579953840562</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2401290516093389</v>
@@ -949,7 +949,7 @@
         <v>-0.07620298303428848</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01599431295924646</v>
+        <v>0.01599431295924668</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.385448485555197</v>
+        <v>-3.676946024445195</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.955106924618504</v>
+        <v>-5.023781259576992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.863617143464642</v>
+        <v>-2.945309453815518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.087309505729768</v>
+        <v>-2.028226869170023</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4840662931824131</v>
+        <v>-0.5087242050380307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4644392173251805</v>
+        <v>-0.465619836628293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3796954243308568</v>
+        <v>-0.3794972351624781</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2733838391806865</v>
+        <v>-0.2587842532969894</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.501658889620388</v>
+        <v>0.456716057954472</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.1593784391911771</v>
+        <v>0.08472306643376135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.945606331038232</v>
+        <v>1.832724872033219</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.123201116384117</v>
+        <v>1.998400118801436</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1198413605695295</v>
+        <v>0.1133660547583724</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02406558001365072</v>
+        <v>0.01160044054983153</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3818160139427598</v>
+        <v>0.3708691913015821</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4262533453347718</v>
+        <v>0.4001963452513327</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.08161293998765559</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.006466767922846579</v>
+        <v>-0.006466767922846578</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.401829569457589</v>
+        <v>-3.408739370484315</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.388030492821386</v>
+        <v>-2.366108461746852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.620871249554251</v>
+        <v>-1.600865569357774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.172578505887255</v>
+        <v>-1.153670352915411</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4236874521987778</v>
+        <v>-0.4151805963247248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2609941996303508</v>
+        <v>-0.2617878736390027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2515967324776853</v>
+        <v>-0.2443363983428543</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1682838441668494</v>
+        <v>-0.1661392007719966</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.014053507580381</v>
+        <v>-1.039470510501139</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2296358240785124</v>
+        <v>0.1194705931165803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5914915168742486</v>
+        <v>0.5942474852852452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.15026668021478</v>
+        <v>1.155785208528297</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1520796947008405</v>
+        <v>-0.1446612666586596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03151900976318029</v>
+        <v>0.0162458223448844</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1155260498011632</v>
+        <v>0.1115749313745528</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2054436855153622</v>
+        <v>0.2186020983046863</v>
       </c>
     </row>
     <row r="19">
